--- a/task excel/task_perform.xlsx
+++ b/task excel/task_perform.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67987C5C-F076-4B92-99BA-FE5AED1F2548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC21B9D2-12BE-41D0-A348-A90CE2448A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{428BE7E6-B3F2-4E68-873E-DF587BFB8E04}"/>
   </bookViews>
@@ -363,12 +363,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,6 +406,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,7 +754,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,350 +771,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2">
         <f ca="1">TODAY()</f>
         <v>45158</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>45268</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14" t="s">
+    <row r="10" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14" t="s">
+    <row r="11" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="13" t="s">
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14" t="s">
+    <row r="12" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14" t="s">
+    <row r="13" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>24</v>
       </c>
     </row>
